--- a/Git-Complete/temp/検証.xlsx
+++ b/Git-Complete/temp/検証.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46EE595-42F8-47FE-B0D6-409267500456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB4782-A089-4441-8FEE-65BF4A64BB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="command-list.txt" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="265">
   <si>
     <r>
       <rPr>
@@ -1069,6 +1069,63 @@
   </si>
   <si>
     <t>options(description)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>powershellのparamで使えそうなやつ</t>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>配列で受け取る引数で、配列のサイズを指定する方法</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[array]</t>
+  </si>
+  <si>
+    <t>[ValidateCount(0,1)]</t>
+  </si>
+  <si>
+    <t>$ary,</t>
+  </si>
+  <si>
+    <t>例：０から１の配列が指定可能</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -4555,10 +4612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4641,6 +4698,36 @@
         <v>258</v>
       </c>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4650,73 +4737,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
-    <col min="4" max="1025" width="9.375" customWidth="1"/>
+    <col min="2" max="3" width="27.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="77.5" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="1027" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
-      <c r="B2" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75">
+      <c r="A2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75">
+        <v>204</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75">
+        <v>206</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75">
       <c r="A5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75">
+    </row>
+    <row r="6" spans="1:5" ht="18.75">
       <c r="A6" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75">
-      <c r="A7" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>211</v>
       </c>
     </row>

--- a/Git-Complete/temp/検証.xlsx
+++ b/Git-Complete/temp/検証.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB4782-A089-4441-8FEE-65BF4A64BB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36EF5AB-42E4-4404-98E5-19C3A2738567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="command-list.txt" sheetId="1" r:id="rId1"/>
-    <sheet name="memo" sheetId="2" r:id="rId2"/>
-    <sheet name="パターン検討" sheetId="3" r:id="rId3"/>
-    <sheet name="sample_git-status" sheetId="4" r:id="rId4"/>
-    <sheet name="こんな感じで結果を引数で取れるね" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="command-list.txt" sheetId="1" r:id="rId2"/>
+    <sheet name="memo" sheetId="2" r:id="rId3"/>
+    <sheet name="パターン検討" sheetId="3" r:id="rId4"/>
+    <sheet name="sample_git-status" sheetId="4" r:id="rId5"/>
+    <sheet name="こんな感じで結果を引数で取れるね" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'command-list.txt'!$A$1:$F$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'command-list.txt'!$A$1:$H$166</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="268">
   <si>
     <r>
       <rPr>
@@ -105,9 +106,6 @@
     </r>
   </si>
   <si>
-    <t>synopsis</t>
-  </si>
-  <si>
     <t>varsion 2.27.0</t>
   </si>
   <si>
@@ -1125,6 +1123,70 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>個別解析が必要か?(synopsis)</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>個別解析が必要か?(optons)</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>個別解析用の自動生成(synopsis)</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>個別解析用の自動生成(options)</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1675,12 +1737,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12E07BD-3FA5-46E2-B716-C41248CDB7F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK166"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AMM166"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1689,10 +1771,13 @@
     <col min="2" max="2" width="24.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.875" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="35.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="1027" width="35.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1709,94 +1794,137 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="6" t="str">
         <f t="shared" ref="D2:D33" si="0">"chrome https://git-scm.com/docs/git-"&amp;A2</f>
         <v>chrome https://git-scm.com/docs/git-annotate</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="5" t="str">
+        <f>"case "&amp;""""&amp;$A2&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+        <v>case "annotate" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I2" s="11" t="str">
+        <f>"case "&amp;""""&amp;$A2&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+        <v>case "annotate" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" hidden="1">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-gitweb</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="str">
+        <f t="shared" ref="H3:H66" si="1">"case "&amp;""""&amp;$A3&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+        <v>case "gitweb" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I3" s="11" t="str">
+        <f t="shared" ref="I3:I66" si="2">"case "&amp;""""&amp;$A3&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+        <v>case "gitweb" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-blame</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "blame" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I4" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "blame" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-rerere</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "rerere" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "rerere" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="str">
@@ -1804,16 +1932,25 @@
         <v>chrome https://git-scm.com/docs/git-bugreport</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "bugreport" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "bugreport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="str">
@@ -1821,16 +1958,25 @@
         <v>chrome https://git-scm.com/docs/git-count-objects</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "count-objects" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I7" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "count-objects" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="str">
@@ -1838,16 +1984,25 @@
         <v>chrome https://git-scm.com/docs/git-difftool</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "difftool" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "difftool" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="str">
@@ -1855,16 +2010,25 @@
         <v>chrome https://git-scm.com/docs/git-fsck</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "fsck" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "fsck" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="str">
@@ -1872,16 +2036,25 @@
         <v>chrome https://git-scm.com/docs/git-help</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "help" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "help" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="str">
@@ -1889,16 +2062,25 @@
         <v>chrome https://git-scm.com/docs/git-instaweb</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "instaweb" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "instaweb" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="str">
@@ -1906,16 +2088,25 @@
         <v>chrome https://git-scm.com/docs/git-merge-tree</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "merge-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "merge-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="str">
@@ -1923,16 +2114,25 @@
         <v>chrome https://git-scm.com/docs/git-show-branch</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "show-branch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "show-branch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="str">
@@ -1940,16 +2140,25 @@
         <v>chrome https://git-scm.com/docs/git-verify-commit</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "verify-commit" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I14" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "verify-commit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="str">
@@ -1957,16 +2166,25 @@
         <v>chrome https://git-scm.com/docs/git-verify-tag</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "verify-tag" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I15" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "verify-tag" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="str">
@@ -1974,111 +2192,165 @@
         <v>chrome https://git-scm.com/docs/git-whatchanged</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "whatchanged" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "whatchanged" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75">
       <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-reflog</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "reflog" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I17" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "reflog" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-remote</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "remote" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "remote" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-repack</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "repack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I19" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "repack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-replace</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "replace" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I20" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "replace" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" hidden="1">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-fast-import</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "fast-import" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I21" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "fast-import" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75">
+      <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75">
-      <c r="A22" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="str">
@@ -2086,16 +2358,25 @@
         <v>chrome https://git-scm.com/docs/git-config</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "config" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "config" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" hidden="1">
       <c r="A23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="str">
@@ -2103,16 +2384,25 @@
         <v>chrome https://git-scm.com/docs/git-fast-export</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.75">
+        <v>32</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "fast-export" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I23" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "fast-export" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="str">
@@ -2120,16 +2410,25 @@
         <v>chrome https://git-scm.com/docs/git-filter-branch</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "filter-branch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I24" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "filter-branch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.75">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="str">
@@ -2137,16 +2436,25 @@
         <v>chrome https://git-scm.com/docs/git-mergetool</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "mergetool" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I25" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "mergetool" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.75">
       <c r="A26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="str">
@@ -2154,16 +2462,25 @@
         <v>chrome https://git-scm.com/docs/git-pack-refs</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "pack-refs" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I26" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "pack-refs" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75">
       <c r="A27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="str">
@@ -2171,35 +2488,53 @@
         <v>chrome https://git-scm.com/docs/git-prune</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "prune" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "prune" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75">
       <c r="A28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-svn</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "svn" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "svn" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.75">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="str">
@@ -2207,16 +2542,25 @@
         <v>chrome https://git-scm.com/docs/git-archimport</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "archimport" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "archimport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.75">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="str">
@@ -2224,16 +2568,25 @@
         <v>chrome https://git-scm.com/docs/git-cvsexportcommit</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "cvsexportcommit" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I30" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "cvsexportcommit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.75">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="str">
@@ -2241,16 +2594,25 @@
         <v>chrome https://git-scm.com/docs/git-cvsimport</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "cvsimport" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I31" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "cvsimport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" hidden="1">
       <c r="A32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="str">
@@ -2258,18 +2620,25 @@
         <v>chrome https://git-scm.com/docs/git-cvsserver</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "cvsserver" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I32" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "cvsserver" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.75">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6" t="str">
@@ -2277,2340 +2646,3552 @@
         <v>chrome https://git-scm.com/docs/git-imap-send</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "imap-send" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I33" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "imap-send" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18.75">
       <c r="A34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6" t="str">
-        <f t="shared" ref="D34:D65" si="1">"chrome https://git-scm.com/docs/git-"&amp;A34</f>
+        <f t="shared" ref="D34:D65" si="3">"chrome https://git-scm.com/docs/git-"&amp;A34</f>
         <v>chrome https://git-scm.com/docs/git-p4</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "p4" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I34" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "p4" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.75">
       <c r="A35" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-quiltimport</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "quiltimport" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I35" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "quiltimport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.75">
       <c r="A36" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-request-pull</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "request-pull" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I36" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "request-pull" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.75">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-send-email</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "send-email" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "send-email" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" hidden="1">
       <c r="A38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitattributes</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitattributes" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I38" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitattributes" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" hidden="1">
       <c r="A39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitcli</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitcli" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I39" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitcli" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" hidden="1">
       <c r="A40" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitcore-tutorial</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitcore-tutorial" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I40" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitcore-tutorial" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" hidden="1">
       <c r="A41" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitcvs-migration</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitcvs-migration" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I41" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitcvs-migration" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" hidden="1">
       <c r="A42" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitdiffcore</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitdiffcore" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I42" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitdiffcore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" hidden="1">
       <c r="A43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-giteveryday</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "giteveryday" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I43" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "giteveryday" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18.75" hidden="1">
       <c r="A44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitfaq</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitfaq" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I44" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitfaq" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" hidden="1">
       <c r="A45" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitglossary</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitglossary" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I45" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitglossary" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18.75" hidden="1">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-githooks</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "githooks" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I46" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "githooks" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18.75" hidden="1">
       <c r="A47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitignore</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitignore" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I47" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitignore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18.75" hidden="1">
       <c r="A48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitmodules</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitmodules" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I48" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitmodules" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" hidden="1">
       <c r="A49" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitnamespaces</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitnamespaces" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I49" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitnamespaces" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18.75" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitrepository-layout</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitrepository-layout" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I50" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitrepository-layout" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" hidden="1">
       <c r="A51" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitrevisions</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitrevisions" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I51" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitrevisions" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18.75" hidden="1">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitsubmodules</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitsubmodules" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I52" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitsubmodules" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18.75" hidden="1">
       <c r="A53" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gittutorial</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gittutorial" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I53" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gittutorial" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18.75" hidden="1">
       <c r="A54" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gittutorial-2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gittutorial-2" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I54" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gittutorial-2" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18.75" hidden="1">
       <c r="A55" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>chrome https://git-scm.com/docs/git-gitworkflows</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitworkflows" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I55" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitworkflows" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18.75">
       <c r="A56" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-bisect</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "bisect" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I56" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "bisect" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18.75">
+      <c r="A57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-bisect</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" ht="18.75">
-      <c r="A57" s="5" t="s">
+      <c r="B57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-format-patch</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "format-patch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I57" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "format-patch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18.75">
+      <c r="A58" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-format-patch</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" ht="18.75">
-      <c r="A58" s="5" t="s">
+      <c r="B58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-init</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "init" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I58" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "init" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18.75">
+      <c r="A59" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-init</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" ht="18.75">
-      <c r="A59" s="5" t="s">
+      <c r="B59" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-rm</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "rm" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I59" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "rm" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18.75">
+      <c r="A60" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-rm</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" ht="18.75">
-      <c r="A60" s="5" t="s">
+      <c r="B60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-show</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "show" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I60" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "show" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18.75">
+      <c r="A61" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-show</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" ht="18.75">
-      <c r="A61" s="5" t="s">
+      <c r="B61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-stash</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "stash" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I61" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "stash" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18.75">
+      <c r="A62" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-stash</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" ht="18.75">
-      <c r="A62" s="5" t="s">
+      <c r="B62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-archive</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "archive" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I62" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "archive" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18.75">
+      <c r="A63" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-archive</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" ht="18.75">
-      <c r="A63" s="5" t="s">
+      <c r="B63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-describe</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "describe" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I63" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "describe" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18.75" hidden="1">
+      <c r="A64" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-describe</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" ht="18.75">
-      <c r="A64" s="5" t="s">
+      <c r="B64" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-gitk</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "gitk" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I64" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "gitk" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18.75">
+      <c r="A65" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-gitk</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" ht="18.75">
-      <c r="A65" s="5" t="s">
+      <c r="B65" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>chrome https://git-scm.com/docs/git-shortlog</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "shortlog" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I65" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "shortlog" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18.75">
+      <c r="A66" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>chrome https://git-scm.com/docs/git-shortlog</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" ht="18.75">
-      <c r="A66" s="5" t="s">
+      <c r="B66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="6" t="str">
+        <f t="shared" ref="D66:D97" si="4">"chrome https://git-scm.com/docs/git-"&amp;A66</f>
+        <v>chrome https://git-scm.com/docs/git-clean</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>case "clean" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I66" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>case "clean" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18.75">
+      <c r="A67" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="6" t="str">
-        <f t="shared" ref="D66:D97" si="2">"chrome https://git-scm.com/docs/git-"&amp;A66</f>
-        <v>chrome https://git-scm.com/docs/git-clean</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" ht="18.75">
-      <c r="A67" s="5" t="s">
+      <c r="B67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>chrome https://git-scm.com/docs/git-pull</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="11" t="str">
+        <f t="shared" ref="H67:H130" si="5">"case "&amp;""""&amp;$A67&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+        <v>case "pull" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I67" s="11" t="str">
+        <f t="shared" ref="I67:I130" si="6">"case "&amp;""""&amp;$A67&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+        <v>case "pull" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18.75">
+      <c r="A68" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>chrome https://git-scm.com/docs/git-pull</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="B68" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-reset</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "reset" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I68" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "reset" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18.75">
       <c r="A69" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-add</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "add" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I69" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "add" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18.75">
       <c r="A70" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-am</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "am" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I70" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "am" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18.75">
       <c r="A71" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-branch</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "branch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I71" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "branch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18.75">
       <c r="A72" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-bundle</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "bundle" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I72" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "bundle" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18.75">
       <c r="A73" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-checkout</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "checkout" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I73" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "checkout" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18.75">
       <c r="A74" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-cherry-pick</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "cherry-pick" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I74" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "cherry-pick" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18.75">
       <c r="A75" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-citool</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "citool" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I75" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "citool" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18.75">
       <c r="A76" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-clone</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "clone" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I76" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "clone" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18.75">
       <c r="A77" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-commit</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "commit" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I77" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "commit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18.75">
       <c r="A78" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-diff</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "diff" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I78" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "diff" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18.75">
       <c r="A79" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-fetch</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "fetch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I79" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "fetch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="18.75">
       <c r="A80" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-gc</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "gc" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I80" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "gc" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18.75">
       <c r="A81" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-grep</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "grep" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I81" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "grep" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18.75">
       <c r="A82" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-gui</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "gui" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I82" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "gui" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18.75">
       <c r="A83" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-log</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "log" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I83" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "log" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18.75">
       <c r="A84" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-merge</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "merge" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I84" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "merge" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18.75">
       <c r="A85" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-mv</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "mv" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I85" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "mv" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18.75">
       <c r="A86" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-notes</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "notes" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I86" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "notes" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18.75">
       <c r="A87" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-push</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "push" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I87" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "push" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18.75">
       <c r="A88" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-range-diff</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "range-diff" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I88" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "range-diff" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18.75">
       <c r="A89" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-rebase</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "rebase" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I89" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "rebase" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18.75">
       <c r="A90" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-restore</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "restore" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I90" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "restore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18.75">
       <c r="A91" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-revert</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "revert" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I91" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "revert" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18.75">
       <c r="A92" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-sparse-checkout</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "sparse-checkout" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I92" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "sparse-checkout" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="18.75">
       <c r="A93" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-status</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "status" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I93" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "status" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="18.75">
       <c r="A94" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-submodule</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "submodule" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I94" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "submodule" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="18.75">
       <c r="A95" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-switch</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "switch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I95" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "switch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="18.75">
       <c r="A96" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-tag</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "tag" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I96" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "tag" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="18.75">
       <c r="A97" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>chrome https://git-scm.com/docs/git-worktree</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "worktree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I97" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "worktree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="18.75">
       <c r="A98" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="C98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="6" t="str">
+        <f t="shared" ref="D98:D129" si="7">"chrome https://git-scm.com/docs/git-"&amp;A98</f>
+        <v>chrome https://git-scm.com/docs/git-diff-tree</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "diff-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I98" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "diff-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18.75">
+      <c r="A99" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="6" t="str">
-        <f t="shared" ref="D98:D129" si="3">"chrome https://git-scm.com/docs/git-"&amp;A98</f>
-        <v>chrome https://git-scm.com/docs/git-diff-tree</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" ht="18.75">
-      <c r="A99" s="5" t="s">
+      <c r="B99" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>chrome https://git-scm.com/docs/git-get-tar-commit-id</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "get-tar-commit-id" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I99" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "get-tar-commit-id" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="18.75">
+      <c r="A100" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D99" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>chrome https://git-scm.com/docs/git-get-tar-commit-id</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" ht="18.75">
-      <c r="A100" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="B100" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-rev-parse</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "rev-parse" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I100" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "rev-parse" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="18.75">
       <c r="A101" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-cat-file</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "cat-file" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I101" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "cat-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="18.75">
       <c r="A102" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-cherry</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "cherry" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I102" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "cherry" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="18.75">
       <c r="A103" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-diff-files</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "diff-files" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I103" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "diff-files" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="18.75">
       <c r="A104" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-diff-index</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "diff-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I104" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "diff-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="18.75">
       <c r="A105" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-for-each-ref</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "for-each-ref" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I105" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "for-each-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="18.75">
       <c r="A106" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-ls-files</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "ls-files" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I106" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "ls-files" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="18.75">
       <c r="A107" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-ls-remote</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "ls-remote" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I107" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "ls-remote" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="18.75">
       <c r="A108" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-ls-tree</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "ls-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I108" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "ls-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="18.75">
       <c r="A109" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-merge-base</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "merge-base" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I109" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "merge-base" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="18.75">
       <c r="A110" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-name-rev</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "name-rev" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I110" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "name-rev" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="18.75">
       <c r="A111" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-pack-redundant</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "pack-redundant" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I111" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "pack-redundant" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="18.75">
       <c r="A112" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-rev-list</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "rev-list" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I112" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "rev-list" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="18.75">
       <c r="A113" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-show-index</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "show-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I113" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "show-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="18.75">
       <c r="A114" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-show-ref</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "show-ref" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I114" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "show-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="18.75">
       <c r="A115" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-unpack-file</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "unpack-file" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I115" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "unpack-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="18.75">
       <c r="A116" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-var</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "var" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I116" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "var" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="18.75">
       <c r="A117" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-verify-pack</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "verify-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I117" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "verify-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="18.75">
       <c r="A118" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="C118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>chrome https://git-scm.com/docs/git-commit-tree</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "commit-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I118" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "commit-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="18.75">
+      <c r="A119" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>chrome https://git-scm.com/docs/git-commit-tree</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="1:6" ht="18.75">
-      <c r="A119" s="5" t="s">
+      <c r="B119" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>chrome https://git-scm.com/docs/git-hash-object</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "hash-object" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I119" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "hash-object" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="18.75">
+      <c r="A120" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>chrome https://git-scm.com/docs/git-hash-object</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="1:6" ht="18.75">
-      <c r="A120" s="5" t="s">
+      <c r="B120" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>chrome https://git-scm.com/docs/git-read-tree</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "read-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I120" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "read-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="18.75">
+      <c r="A121" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>chrome https://git-scm.com/docs/git-read-tree</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="1:6" ht="18.75">
-      <c r="A121" s="5" t="s">
+      <c r="B121" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>chrome https://git-scm.com/docs/git-symbolic-ref</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "symbolic-ref" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I121" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "symbolic-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="18.75">
+      <c r="A122" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>chrome https://git-scm.com/docs/git-symbolic-ref</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:6" ht="18.75">
-      <c r="A122" s="5" t="s">
+      <c r="B122" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>chrome https://git-scm.com/docs/git-index-pack</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "index-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I122" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "index-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="18.75">
+      <c r="A123" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D122" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>chrome https://git-scm.com/docs/git-index-pack</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="1:6" ht="18.75">
-      <c r="A123" s="5" t="s">
+      <c r="B123" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>chrome https://git-scm.com/docs/git-prune-packed</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "prune-packed" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I123" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "prune-packed" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="18.75">
+      <c r="A124" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D123" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>chrome https://git-scm.com/docs/git-prune-packed</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="1:6" ht="18.75">
-      <c r="A124" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="B124" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D124" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-mktree</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "mktree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I124" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "mktree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="18.75">
       <c r="A125" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-apply</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "apply" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I125" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "apply" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="18.75">
       <c r="A126" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-checkout-index</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "checkout-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I126" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "checkout-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="18.75">
       <c r="A127" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-commit-graph</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="5"/>
-    </row>
-    <row r="128" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "commit-graph" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I127" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "commit-graph" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="18.75">
       <c r="A128" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-merge-file</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="5"/>
-    </row>
-    <row r="129" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "merge-file" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I128" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "merge-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="18.75">
       <c r="A129" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>chrome https://git-scm.com/docs/git-merge-index</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "merge-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I129" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "merge-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="18.75">
       <c r="A130" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="6" t="str">
-        <f t="shared" ref="D130:D166" si="4">"chrome https://git-scm.com/docs/git-"&amp;A130</f>
+        <f t="shared" ref="D130:D166" si="8">"chrome https://git-scm.com/docs/git-"&amp;A130</f>
         <v>chrome https://git-scm.com/docs/git-mktag</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>case "mktag" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I130" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>case "mktag" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="18.75">
       <c r="A131" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-multi-pack-index</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="11" t="str">
+        <f t="shared" ref="H131:H166" si="9">"case "&amp;""""&amp;$A131&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+        <v>case "multi-pack-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I131" s="11" t="str">
+        <f t="shared" ref="I131:I166" si="10">"case "&amp;""""&amp;$A131&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+        <v>case "multi-pack-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="18.75">
       <c r="A132" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-pack-objects</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "pack-objects" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I132" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "pack-objects" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="18.75">
       <c r="A133" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-unpack-objects</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "unpack-objects" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I133" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "unpack-objects" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="18.75">
       <c r="A134" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-update-index</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "update-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I134" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "update-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="18.75">
       <c r="A135" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-update-ref</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "update-ref" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I135" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "update-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="18.75">
       <c r="A136" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-write-tree</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "write-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I136" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "write-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="18.75">
       <c r="A137" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="C137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>chrome https://git-scm.com/docs/git-check-ref-format</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "check-ref-format" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I137" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "check-ref-format" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="18.75">
+      <c r="A138" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>chrome https://git-scm.com/docs/git-check-ref-format</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="1:6" ht="18.75">
-      <c r="A138" s="5" t="s">
+      <c r="B138" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>chrome https://git-scm.com/docs/git-merge-one-file</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "merge-one-file" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I138" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "merge-one-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="18.75">
+      <c r="A139" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>chrome https://git-scm.com/docs/git-merge-one-file</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="5"/>
-    </row>
-    <row r="139" spans="1:6" ht="18.75">
-      <c r="A139" s="5" t="s">
+      <c r="B139" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>chrome https://git-scm.com/docs/git-patch-id</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "patch-id" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I139" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "patch-id" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="18.75">
+      <c r="A140" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>chrome https://git-scm.com/docs/git-patch-id</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="5"/>
-    </row>
-    <row r="140" spans="1:6" ht="18.75">
-      <c r="A140" s="5" t="s">
+      <c r="B140" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>chrome https://git-scm.com/docs/git-column</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "column" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I140" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "column" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="18.75">
+      <c r="A141" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>chrome https://git-scm.com/docs/git-column</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="1:6" ht="18.75">
-      <c r="A141" s="5" t="s">
+      <c r="B141" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>chrome https://git-scm.com/docs/git-mailsplit</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "mailsplit" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I141" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "mailsplit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="18.75" hidden="1">
+      <c r="A142" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>chrome https://git-scm.com/docs/git-mailsplit</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="1:6" ht="18.75">
-      <c r="A142" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="B142" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D142" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-sh-setup</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "sh-setup" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I142" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "sh-setup" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="18.75">
       <c r="A143" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-check-attr</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "check-attr" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I143" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "check-attr" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="18.75">
       <c r="A144" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-check-ignore</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "check-ignore" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I144" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "check-ignore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="18.75">
       <c r="A145" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-check-mailmap</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="5"/>
-    </row>
-    <row r="146" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "check-mailmap" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I145" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "check-mailmap" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="18.75">
       <c r="A146" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-credential</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "credential" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I146" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "credential" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="18.75" hidden="1">
       <c r="A147" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-credential-cache</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="1:6" ht="18.75">
+        <v>32</v>
+      </c>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "credential-cache" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I147" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "credential-cache" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="18.75" hidden="1">
       <c r="A148" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-credential-store</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F148" s="5"/>
-    </row>
-    <row r="149" spans="1:6" ht="18.75">
+        <v>32</v>
+      </c>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "credential-store" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I148" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "credential-store" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="18.75">
       <c r="A149" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-fmt-merge-msg</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="5"/>
-    </row>
-    <row r="150" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "fmt-merge-msg" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I149" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "fmt-merge-msg" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="18.75">
       <c r="A150" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-interpret-trailers</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="5"/>
-    </row>
-    <row r="151" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "interpret-trailers" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I150" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "interpret-trailers" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="18.75">
       <c r="A151" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-mailinfo</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="5"/>
-    </row>
-    <row r="152" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "mailinfo" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I151" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "mailinfo" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="18.75" hidden="1">
       <c r="A152" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-sh-i18n</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="5"/>
-    </row>
-    <row r="153" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "sh-i18n" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I152" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "sh-i18n" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="18.75">
       <c r="A153" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-stripspace</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="5"/>
-    </row>
-    <row r="154" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "stripspace" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I153" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "stripspace" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="18.75">
       <c r="A154" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="C154" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>chrome https://git-scm.com/docs/git-receive-pack</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "receive-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I154" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "receive-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="18.75">
+      <c r="A155" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>chrome https://git-scm.com/docs/git-receive-pack</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="5"/>
-    </row>
-    <row r="155" spans="1:6" ht="18.75">
-      <c r="A155" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="B155" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-http-fetch</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="5"/>
-    </row>
-    <row r="156" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "http-fetch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I155" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "http-fetch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="18.75">
       <c r="A156" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-http-push</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="5"/>
-    </row>
-    <row r="157" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "http-push" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I156" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "http-push" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="18.75" hidden="1">
       <c r="A157" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-parse-remote</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="5"/>
-    </row>
-    <row r="158" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "parse-remote" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I157" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "parse-remote" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="18.75" hidden="1">
       <c r="A158" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-shell</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="5"/>
-    </row>
-    <row r="159" spans="1:6" ht="18.75">
+        <v>11</v>
+      </c>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "shell" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I158" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "shell" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="18.75">
       <c r="A159" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-upload-archive</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="5"/>
-    </row>
-    <row r="160" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "upload-archive" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I159" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "upload-archive" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="18.75">
       <c r="A160" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-upload-pack</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="5"/>
-    </row>
-    <row r="161" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "upload-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I160" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "upload-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="18.75">
       <c r="A161" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-daemon</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" s="5"/>
-    </row>
-    <row r="162" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "daemon" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I161" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "daemon" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="18.75">
       <c r="A162" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-fetch-pack</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="5"/>
-    </row>
-    <row r="163" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "fetch-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I162" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "fetch-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="18.75">
       <c r="A163" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-http-backend</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "http-backend" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I163" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "http-backend" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="18.75">
       <c r="A164" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-send-pack</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="5"/>
-    </row>
-    <row r="165" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "send-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I164" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "send-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="18.75">
       <c r="A165" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-update-server-info</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="5"/>
-    </row>
-    <row r="166" spans="1:6" ht="18.75">
+        <v>9</v>
+      </c>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "update-server-info" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I165" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "update-server-info" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="18.75">
       <c r="A166" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D166" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>chrome https://git-scm.com/docs/git-stage</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>case "stage" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
+      <c r="I166" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>case "stage" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F166" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H166" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="〇"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
@@ -4625,107 +6206,107 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
       <c r="A5" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75">
       <c r="A8" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75">
       <c r="A10" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75">
       <c r="B11" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75">
       <c r="A14" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75">
       <c r="B15" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75">
       <c r="B16" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75">
       <c r="A20" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75">
       <c r="B22" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75">
       <c r="B23" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75">
       <c r="B24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75">
       <c r="A27" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4735,12 +6316,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4754,66 +6335,66 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" t="s">
         <v>200</v>
-      </c>
-      <c r="E1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
         <v>207</v>
-      </c>
-      <c r="E4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75">
       <c r="A5" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75">
       <c r="A6" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4823,7 +6404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -4844,34 +6425,34 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18">
       <c r="A1" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="11" t="str">
         <f t="shared" ref="B2:B24" si="0">"${_"&amp;C2&amp;"}"</f>
         <v>${_-s}</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="str">
@@ -4885,14 +6466,14 @@
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--short}</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="str">
@@ -4906,14 +6487,14 @@
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-b}</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="str">
@@ -4927,14 +6508,14 @@
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--branch}</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="str">
@@ -4948,14 +6529,14 @@
     </row>
     <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--show-stash}</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="str">
@@ -4969,17 +6550,17 @@
     </row>
     <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--porcelain}</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="E7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4992,14 +6573,14 @@
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--long}</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="str">
@@ -5013,14 +6594,14 @@
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-v}</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="str">
@@ -5034,14 +6615,14 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--verbose}</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="str">
@@ -5055,17 +6636,17 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-u}</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="E11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5078,17 +6659,17 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--untracked-files}</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="E12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5101,17 +6682,17 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--ignore-submodules}</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5124,14 +6705,14 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--ignored}</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="str">
@@ -5145,14 +6726,14 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-z}</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="str">
@@ -5166,17 +6747,17 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--column}</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="E16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5189,14 +6770,14 @@
     </row>
     <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-column}</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="str">
@@ -5210,14 +6791,14 @@
     </row>
     <row r="18" spans="1:6" ht="18.75">
       <c r="A18" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--ahead-behind}</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="str">
@@ -5231,14 +6812,14 @@
     </row>
     <row r="19" spans="1:6" ht="18.75">
       <c r="A19" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-ahead-behind}</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="str">
@@ -5252,14 +6833,14 @@
     </row>
     <row r="20" spans="1:6" ht="18.75">
       <c r="A20" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--renames}</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="str">
@@ -5273,14 +6854,14 @@
     </row>
     <row r="21" spans="1:6" ht="18.75">
       <c r="A21" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-renames}</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="str">
@@ -5294,17 +6875,17 @@
     </row>
     <row r="22" spans="1:6" ht="18.75">
       <c r="A22" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--find-renames}</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="E22" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5317,14 +6898,14 @@
     </row>
     <row r="23" spans="1:6" ht="18.75">
       <c r="A23" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-lock-index}</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="str">
@@ -5338,14 +6919,14 @@
     </row>
     <row r="24" spans="1:6" ht="18.75">
       <c r="A24" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--lock-index}</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="str">
@@ -5364,7 +6945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:A10"/>
   <sheetViews>
@@ -5379,32 +6960,32 @@
   <sheetData>
     <row r="3" spans="1:1" ht="18.75">
       <c r="A3" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75">
       <c r="A4" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75">
       <c r="A7" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75">
       <c r="A8" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75">
       <c r="A9" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75">
       <c r="A10" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Git-Complete/temp/検証.xlsx
+++ b/Git-Complete/temp/検証.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36EF5AB-42E4-4404-98E5-19C3A2738567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A2941D-6A1E-461B-ACA6-D0760CCC7587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="こんな感じで結果を引数で取れるね" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'command-list.txt'!$A$1:$H$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'command-list.txt'!$A$1:$I$166</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="273">
   <si>
     <r>
       <rPr>
@@ -433,9 +433,6 @@
     <t>plumbinginterrogators</t>
   </si>
   <si>
-    <t>get-tar-commit-id</t>
-  </si>
-  <si>
     <t>rev-parse</t>
   </si>
   <si>
@@ -1127,32 +1124,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>個別解析が必要か?(synopsis)</t>
-    <rPh sb="0" eb="2">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>個別解析が必要か?(optons)</t>
-    <rPh sb="0" eb="2">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>個別解析用の自動生成(synopsis)</t>
     <rPh sb="0" eb="2">
       <t>コベツ</t>
@@ -1188,6 +1159,53 @@
     <rPh sb="8" eb="10">
       <t>セイセイ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サブコマンドあり</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>個別スクレイプが必要か?(optons)</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>個別スクレイプが必要か?(synopsis)</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>get-tar-commit-id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>あ</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1758,26 +1776,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AMM166"/>
+  <dimension ref="A1:AMN166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J145" sqref="J145"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5:K166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
-    <col min="8" max="1027" width="35.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="1" customWidth="1"/>
+    <col min="9" max="1028" width="35.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1794,20 +1813,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>266</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75">
+        <v>263</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" hidden="1">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1824,18 +1848,23 @@
       <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="5" t="str">
+      <c r="F2" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="5" t="str">
         <f>"case "&amp;""""&amp;$A2&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
         <v>case "annotate" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I2" s="11" t="str">
+      <c r="J2" s="11" t="str">
         <f>"case "&amp;""""&amp;$A2&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
         <v>case "annotate" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" hidden="1">
+    <row r="3" spans="1:11" ht="18.75" hidden="1">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1854,16 +1883,17 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="11" t="str">
-        <f t="shared" ref="H3:H66" si="1">"case "&amp;""""&amp;$A3&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="str">
+        <f t="shared" ref="I3:I66" si="1">"case "&amp;""""&amp;$A3&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
         <v>case "gitweb" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I3" s="11" t="str">
-        <f t="shared" ref="I3:I66" si="2">"case "&amp;""""&amp;$A3&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+      <c r="J3" s="11" t="str">
+        <f t="shared" ref="J3:J66" si="2">"case "&amp;""""&amp;$A3&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
         <v>case "gitweb" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75">
+    <row r="4" spans="1:11" ht="18.75" hidden="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1880,18 +1910,23 @@
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="11" t="str">
+      <c r="F4" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "blame" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I4" s="11" t="str">
+      <c r="J4" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "blame" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75">
+    <row r="5" spans="1:11" ht="18.75">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1908,18 +1943,29 @@
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="str">
+      <c r="F5" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "rerere" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I5" s="11" t="str">
+      <c r="J5" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "rerere" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75">
+      <c r="K5" s="1" t="str">
+        <f>""""&amp;A5&amp;""""&amp;","</f>
+        <v>"rerere",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" hidden="1">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1934,18 +1980,23 @@
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11" t="str">
+      <c r="F6" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "bugreport" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I6" s="11" t="str">
+      <c r="J6" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "bugreport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75">
+    <row r="7" spans="1:11" ht="18.75" hidden="1">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1960,18 +2011,23 @@
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11" t="str">
+      <c r="F7" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "count-objects" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I7" s="11" t="str">
+      <c r="J7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "count-objects" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" hidden="1">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1986,18 +2042,23 @@
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="11" t="str">
+      <c r="F8" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "difftool" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="J8" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "difftool" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75">
+    <row r="9" spans="1:11" ht="18.75" hidden="1">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2012,18 +2073,23 @@
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="11" t="str">
+      <c r="F9" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "fsck" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="J9" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "fsck" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75">
+    <row r="10" spans="1:11" ht="18.75" hidden="1">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -2038,18 +2104,23 @@
       <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11" t="str">
+      <c r="F10" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "help" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I10" s="11" t="str">
+      <c r="J10" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "help" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75">
+    <row r="11" spans="1:11" ht="18.75" hidden="1">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2064,18 +2135,23 @@
       <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11" t="str">
+      <c r="F11" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "instaweb" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I11" s="11" t="str">
+      <c r="J11" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "instaweb" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75">
+    <row r="12" spans="1:11" ht="18.75">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2090,18 +2166,27 @@
       <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="11" t="str">
+      <c r="F12" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "merge-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I12" s="11" t="str">
+      <c r="J12" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "merge-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75">
+      <c r="K12" s="1" t="str">
+        <f>""""&amp;A12&amp;""""&amp;","</f>
+        <v>"merge-tree",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" hidden="1">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -2116,18 +2201,23 @@
       <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="11" t="str">
+      <c r="F13" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "show-branch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I13" s="11" t="str">
+      <c r="J13" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "show-branch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75">
+    <row r="14" spans="1:11" ht="18.75" hidden="1">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -2142,18 +2232,23 @@
       <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="11" t="str">
+      <c r="F14" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "verify-commit" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I14" s="11" t="str">
+      <c r="J14" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "verify-commit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75">
+    <row r="15" spans="1:11" ht="18.75" hidden="1">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -2168,18 +2263,23 @@
       <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="11" t="str">
+      <c r="F15" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "verify-tag" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I15" s="11" t="str">
+      <c r="J15" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "verify-tag" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75">
+    <row r="16" spans="1:11" ht="18.75">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -2194,18 +2294,27 @@
       <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="11" t="str">
+      <c r="F16" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "whatchanged" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I16" s="11" t="str">
+      <c r="J16" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "whatchanged" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.75">
+      <c r="K16" s="1" t="str">
+        <f>""""&amp;A16&amp;""""&amp;","</f>
+        <v>"whatchanged",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" hidden="1">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2222,18 +2331,23 @@
       <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="11" t="str">
+      <c r="F17" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "reflog" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I17" s="11" t="str">
+      <c r="J17" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "reflog" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75">
+    <row r="18" spans="1:10" ht="18.75" hidden="1">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -2250,18 +2364,23 @@
       <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="11" t="str">
+      <c r="F18" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "remote" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I18" s="11" t="str">
+      <c r="J18" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "remote" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75">
+    <row r="19" spans="1:10" ht="18.75" hidden="1">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2278,18 +2397,23 @@
       <c r="E19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="11" t="str">
+      <c r="F19" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "repack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I19" s="11" t="str">
+      <c r="J19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "repack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75">
+    <row r="20" spans="1:10" ht="18.75" hidden="1">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -2306,18 +2430,23 @@
       <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="11" t="str">
+      <c r="F20" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "replace" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I20" s="11" t="str">
+      <c r="J20" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "replace" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" hidden="1">
+    <row r="21" spans="1:10" ht="18.75" hidden="1">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -2336,16 +2465,17 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="11" t="str">
+      <c r="H21" s="13"/>
+      <c r="I21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "fast-import" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I21" s="11" t="str">
+      <c r="J21" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "fast-import" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75">
+    <row r="22" spans="1:10" ht="18.75" hidden="1">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2360,18 +2490,23 @@
       <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="11" t="str">
+      <c r="F22" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "config" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I22" s="11" t="str">
+      <c r="J22" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "config" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" hidden="1">
+    <row r="23" spans="1:10" ht="18.75" hidden="1">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -2388,16 +2523,17 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="11" t="str">
+      <c r="H23" s="13"/>
+      <c r="I23" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "fast-export" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I23" s="11" t="str">
+      <c r="J23" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "fast-export" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
+    <row r="24" spans="1:10" ht="18.75" hidden="1">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -2412,18 +2548,23 @@
       <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="11" t="str">
+      <c r="F24" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "filter-branch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I24" s="11" t="str">
+      <c r="J24" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "filter-branch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75">
+    <row r="25" spans="1:10" ht="18.75" hidden="1">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -2438,18 +2579,23 @@
       <c r="E25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="11" t="str">
+      <c r="F25" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "mergetool" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I25" s="11" t="str">
+      <c r="J25" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "mergetool" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75">
+    <row r="26" spans="1:10" ht="18.75" hidden="1">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -2464,18 +2610,23 @@
       <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="11" t="str">
+      <c r="F26" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "pack-refs" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I26" s="11" t="str">
+      <c r="J26" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "pack-refs" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:10" ht="18.75" hidden="1">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -2490,18 +2641,23 @@
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="11" t="str">
+      <c r="F27" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "prune" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I27" s="11" t="str">
+      <c r="J27" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "prune" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75">
+    <row r="28" spans="1:10" ht="18.75" hidden="1">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -2518,18 +2674,23 @@
       <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="11" t="str">
+      <c r="F28" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "svn" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I28" s="11" t="str">
+      <c r="J28" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "svn" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75">
+    <row r="29" spans="1:10" ht="18.75" hidden="1">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -2544,18 +2705,23 @@
       <c r="E29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11" t="str">
+      <c r="F29" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "archimport" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I29" s="11" t="str">
+      <c r="J29" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "archimport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75">
+    <row r="30" spans="1:10" ht="18.75" hidden="1">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -2570,18 +2736,23 @@
       <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="11" t="str">
+      <c r="F30" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "cvsexportcommit" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I30" s="11" t="str">
+      <c r="J30" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "cvsexportcommit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75">
+    <row r="31" spans="1:10" ht="18.75" hidden="1">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -2596,18 +2767,23 @@
       <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="11" t="str">
+      <c r="F31" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "cvsimport" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I31" s="11" t="str">
+      <c r="J31" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "cvsimport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" hidden="1">
+    <row r="32" spans="1:10" ht="18.75" hidden="1">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
@@ -2624,16 +2800,17 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="11" t="str">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "cvsserver" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I32" s="11" t="str">
+      <c r="J32" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "cvsserver" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75">
+    <row r="33" spans="1:10" ht="18.75" hidden="1">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -2648,18 +2825,23 @@
       <c r="E33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="11" t="str">
+      <c r="F33" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "imap-send" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I33" s="11" t="str">
+      <c r="J33" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "imap-send" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75">
+    <row r="34" spans="1:10" ht="18.75" hidden="1">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -2674,18 +2856,23 @@
       <c r="E34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="11" t="str">
+      <c r="F34" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "p4" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I34" s="11" t="str">
+      <c r="J34" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "p4" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75">
+    <row r="35" spans="1:10" ht="18.75" hidden="1">
       <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
@@ -2700,18 +2887,23 @@
       <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="11" t="str">
+      <c r="F35" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "quiltimport" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I35" s="11" t="str">
+      <c r="J35" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "quiltimport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75">
+    <row r="36" spans="1:10" ht="18.75" hidden="1">
       <c r="A36" s="5" t="s">
         <v>48</v>
       </c>
@@ -2726,18 +2918,23 @@
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="11" t="str">
+      <c r="F36" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "request-pull" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I36" s="11" t="str">
+      <c r="J36" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "request-pull" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75">
+    <row r="37" spans="1:10" ht="18.75" hidden="1">
       <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
@@ -2752,18 +2949,23 @@
       <c r="E37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="11" t="str">
+      <c r="F37" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "send-email" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I37" s="11" t="str">
+      <c r="J37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "send-email" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" hidden="1">
+    <row r="38" spans="1:10" ht="18.75" hidden="1">
       <c r="A38" s="5" t="s">
         <v>50</v>
       </c>
@@ -2780,16 +2982,17 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="11" t="str">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitattributes" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I38" s="11" t="str">
+      <c r="J38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitattributes" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" hidden="1">
+    <row r="39" spans="1:10" ht="18.75" hidden="1">
       <c r="A39" s="5" t="s">
         <v>52</v>
       </c>
@@ -2806,16 +3009,17 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="11" t="str">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitcli" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I39" s="11" t="str">
+      <c r="J39" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitcli" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" hidden="1">
+    <row r="40" spans="1:10" ht="18.75" hidden="1">
       <c r="A40" s="5" t="s">
         <v>53</v>
       </c>
@@ -2832,16 +3036,17 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="11" t="str">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitcore-tutorial" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I40" s="11" t="str">
+      <c r="J40" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitcore-tutorial" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" hidden="1">
+    <row r="41" spans="1:10" ht="18.75" hidden="1">
       <c r="A41" s="5" t="s">
         <v>54</v>
       </c>
@@ -2858,16 +3063,17 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11" t="str">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitcvs-migration" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I41" s="11" t="str">
+      <c r="J41" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitcvs-migration" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" hidden="1">
+    <row r="42" spans="1:10" ht="18.75" hidden="1">
       <c r="A42" s="5" t="s">
         <v>55</v>
       </c>
@@ -2884,16 +3090,17 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="11" t="str">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitdiffcore" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I42" s="11" t="str">
+      <c r="J42" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitdiffcore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" hidden="1">
+    <row r="43" spans="1:10" ht="18.75" hidden="1">
       <c r="A43" s="5" t="s">
         <v>56</v>
       </c>
@@ -2910,16 +3117,17 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="11" t="str">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "giteveryday" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I43" s="11" t="str">
+      <c r="J43" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "giteveryday" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" hidden="1">
+    <row r="44" spans="1:10" ht="18.75" hidden="1">
       <c r="A44" s="5" t="s">
         <v>57</v>
       </c>
@@ -2936,16 +3144,17 @@
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="11" t="str">
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitfaq" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I44" s="11" t="str">
+      <c r="J44" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitfaq" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" hidden="1">
+    <row r="45" spans="1:10" ht="18.75" hidden="1">
       <c r="A45" s="5" t="s">
         <v>58</v>
       </c>
@@ -2962,16 +3171,17 @@
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="11" t="str">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitglossary" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I45" s="11" t="str">
+      <c r="J45" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitglossary" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" hidden="1">
+    <row r="46" spans="1:10" ht="18.75" hidden="1">
       <c r="A46" s="5" t="s">
         <v>59</v>
       </c>
@@ -2988,16 +3198,17 @@
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11" t="str">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "githooks" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I46" s="11" t="str">
+      <c r="J46" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "githooks" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" hidden="1">
+    <row r="47" spans="1:10" ht="18.75" hidden="1">
       <c r="A47" s="5" t="s">
         <v>60</v>
       </c>
@@ -3014,16 +3225,17 @@
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="11" t="str">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitignore" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I47" s="11" t="str">
+      <c r="J47" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitignore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" hidden="1">
+    <row r="48" spans="1:10" ht="18.75" hidden="1">
       <c r="A48" s="5" t="s">
         <v>61</v>
       </c>
@@ -3040,16 +3252,17 @@
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="11" t="str">
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitmodules" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I48" s="11" t="str">
+      <c r="J48" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitmodules" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" hidden="1">
+    <row r="49" spans="1:10" ht="18.75" hidden="1">
       <c r="A49" s="5" t="s">
         <v>62</v>
       </c>
@@ -3066,16 +3279,17 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="11" t="str">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitnamespaces" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I49" s="11" t="str">
+      <c r="J49" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitnamespaces" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" hidden="1">
+    <row r="50" spans="1:10" ht="18.75" hidden="1">
       <c r="A50" s="5" t="s">
         <v>63</v>
       </c>
@@ -3092,16 +3306,17 @@
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="11" t="str">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitrepository-layout" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I50" s="11" t="str">
+      <c r="J50" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitrepository-layout" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" hidden="1">
+    <row r="51" spans="1:10" ht="18.75" hidden="1">
       <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
@@ -3118,16 +3333,17 @@
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="11" t="str">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitrevisions" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I51" s="11" t="str">
+      <c r="J51" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitrevisions" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" hidden="1">
+    <row r="52" spans="1:10" ht="18.75" hidden="1">
       <c r="A52" s="5" t="s">
         <v>65</v>
       </c>
@@ -3144,16 +3360,17 @@
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="11" t="str">
+      <c r="H52" s="11"/>
+      <c r="I52" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitsubmodules" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I52" s="11" t="str">
+      <c r="J52" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitsubmodules" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" hidden="1">
+    <row r="53" spans="1:10" ht="18.75" hidden="1">
       <c r="A53" s="5" t="s">
         <v>66</v>
       </c>
@@ -3170,16 +3387,17 @@
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="11" t="str">
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gittutorial" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I53" s="11" t="str">
+      <c r="J53" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gittutorial" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" hidden="1">
+    <row r="54" spans="1:10" ht="18.75" hidden="1">
       <c r="A54" s="5" t="s">
         <v>67</v>
       </c>
@@ -3196,16 +3414,17 @@
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="11" t="str">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gittutorial-2" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I54" s="11" t="str">
+      <c r="J54" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gittutorial-2" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" hidden="1">
+    <row r="55" spans="1:10" ht="18.75" hidden="1">
       <c r="A55" s="5" t="s">
         <v>68</v>
       </c>
@@ -3222,16 +3441,17 @@
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11" t="str">
+      <c r="H55" s="11"/>
+      <c r="I55" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitworkflows" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I55" s="11" t="str">
+      <c r="J55" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitworkflows" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75">
+    <row r="56" spans="1:10" ht="18.75" hidden="1">
       <c r="A56" s="5" t="s">
         <v>69</v>
       </c>
@@ -3248,18 +3468,23 @@
       <c r="E56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="11" t="str">
+      <c r="F56" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "bisect" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I56" s="11" t="str">
+      <c r="J56" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "bisect" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75">
+    <row r="57" spans="1:10" ht="18.75" hidden="1">
       <c r="A57" s="5" t="s">
         <v>71</v>
       </c>
@@ -3276,18 +3501,23 @@
       <c r="E57" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="11" t="str">
+      <c r="F57" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "format-patch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I57" s="11" t="str">
+      <c r="J57" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "format-patch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75">
+    <row r="58" spans="1:10" ht="18.75" hidden="1">
       <c r="A58" s="5" t="s">
         <v>72</v>
       </c>
@@ -3304,18 +3534,23 @@
       <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="11" t="str">
+      <c r="F58" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "init" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I58" s="11" t="str">
+      <c r="J58" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "init" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75">
+    <row r="59" spans="1:10" ht="18.75" hidden="1">
       <c r="A59" s="5" t="s">
         <v>73</v>
       </c>
@@ -3332,18 +3567,23 @@
       <c r="E59" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="11" t="str">
+      <c r="F59" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "rm" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I59" s="11" t="str">
+      <c r="J59" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "rm" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75">
+    <row r="60" spans="1:10" ht="18.75" hidden="1">
       <c r="A60" s="5" t="s">
         <v>74</v>
       </c>
@@ -3360,18 +3600,23 @@
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="11" t="str">
+      <c r="F60" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "show" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I60" s="11" t="str">
+      <c r="J60" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "show" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75">
+    <row r="61" spans="1:10" ht="18.75" hidden="1">
       <c r="A61" s="5" t="s">
         <v>75</v>
       </c>
@@ -3388,18 +3633,23 @@
       <c r="E61" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="11" t="str">
+      <c r="F61" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "stash" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I61" s="11" t="str">
+      <c r="J61" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "stash" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75">
+    <row r="62" spans="1:10" ht="18.75" hidden="1">
       <c r="A62" s="5" t="s">
         <v>76</v>
       </c>
@@ -3416,18 +3666,23 @@
       <c r="E62" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="11" t="str">
+      <c r="F62" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "archive" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I62" s="11" t="str">
+      <c r="J62" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "archive" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75">
+    <row r="63" spans="1:10" ht="18.75" hidden="1">
       <c r="A63" s="5" t="s">
         <v>78</v>
       </c>
@@ -3444,18 +3699,23 @@
       <c r="E63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="11" t="str">
+      <c r="F63" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "describe" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I63" s="11" t="str">
+      <c r="J63" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "describe" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" hidden="1">
+    <row r="64" spans="1:10" ht="18.75" hidden="1">
       <c r="A64" s="5" t="s">
         <v>79</v>
       </c>
@@ -3474,16 +3734,17 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="11" t="str">
+      <c r="H64" s="11"/>
+      <c r="I64" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "gitk" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I64" s="11" t="str">
+      <c r="J64" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "gitk" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75">
+    <row r="65" spans="1:11" ht="18.75" hidden="1">
       <c r="A65" s="5" t="s">
         <v>80</v>
       </c>
@@ -3500,18 +3761,23 @@
       <c r="E65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="11" t="str">
+      <c r="F65" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "shortlog" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I65" s="11" t="str">
+      <c r="J65" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "shortlog" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75">
+    <row r="66" spans="1:11" ht="18.75" hidden="1">
       <c r="A66" s="5" t="s">
         <v>81</v>
       </c>
@@ -3528,18 +3794,23 @@
       <c r="E66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="11" t="str">
+      <c r="F66" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "clean" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I66" s="11" t="str">
+      <c r="J66" s="11" t="str">
         <f t="shared" si="2"/>
         <v>case "clean" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75">
+    <row r="67" spans="1:11" ht="18.75" hidden="1">
       <c r="A67" s="5" t="s">
         <v>82</v>
       </c>
@@ -3556,18 +3827,23 @@
       <c r="E67" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="11" t="str">
-        <f t="shared" ref="H67:H130" si="5">"case "&amp;""""&amp;$A67&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+      <c r="F67" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H67" s="13"/>
+      <c r="I67" s="11" t="str">
+        <f t="shared" ref="I67:I130" si="5">"case "&amp;""""&amp;$A67&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
         <v>case "pull" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I67" s="11" t="str">
-        <f t="shared" ref="I67:I130" si="6">"case "&amp;""""&amp;$A67&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+      <c r="J67" s="11" t="str">
+        <f t="shared" ref="J67:J130" si="6">"case "&amp;""""&amp;$A67&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
         <v>case "pull" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75">
+    <row r="68" spans="1:11" ht="18.75" hidden="1">
       <c r="A68" s="5" t="s">
         <v>83</v>
       </c>
@@ -3584,18 +3860,23 @@
       <c r="E68" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="11" t="str">
+      <c r="F68" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "reset" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I68" s="11" t="str">
+      <c r="J68" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "reset" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75">
+    <row r="69" spans="1:11" ht="18.75" hidden="1">
       <c r="A69" s="5" t="s">
         <v>84</v>
       </c>
@@ -3610,18 +3891,23 @@
       <c r="E69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="11" t="str">
+      <c r="F69" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "add" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I69" s="11" t="str">
+      <c r="J69" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "add" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75">
+    <row r="70" spans="1:11" ht="18.75" hidden="1">
       <c r="A70" s="5" t="s">
         <v>85</v>
       </c>
@@ -3636,18 +3922,23 @@
       <c r="E70" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="11" t="str">
+      <c r="F70" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "am" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I70" s="11" t="str">
+      <c r="J70" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "am" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75">
+    <row r="71" spans="1:11" ht="18.75" hidden="1">
       <c r="A71" s="5" t="s">
         <v>86</v>
       </c>
@@ -3662,18 +3953,23 @@
       <c r="E71" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="11" t="str">
+      <c r="F71" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "branch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I71" s="11" t="str">
+      <c r="J71" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "branch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75">
+    <row r="72" spans="1:11" ht="18.75" hidden="1">
       <c r="A72" s="5" t="s">
         <v>87</v>
       </c>
@@ -3688,18 +3984,23 @@
       <c r="E72" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="11" t="str">
+      <c r="F72" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "bundle" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I72" s="11" t="str">
+      <c r="J72" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "bundle" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75">
+    <row r="73" spans="1:11" ht="18.75" hidden="1">
       <c r="A73" s="5" t="s">
         <v>88</v>
       </c>
@@ -3714,18 +4015,23 @@
       <c r="E73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="11" t="str">
+      <c r="F73" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "checkout" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I73" s="11" t="str">
+      <c r="J73" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "checkout" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75">
+    <row r="74" spans="1:11" ht="18.75" hidden="1">
       <c r="A74" s="5" t="s">
         <v>89</v>
       </c>
@@ -3740,18 +4046,23 @@
       <c r="E74" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="11" t="str">
+      <c r="F74" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "cherry-pick" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I74" s="11" t="str">
+      <c r="J74" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "cherry-pick" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75">
+    <row r="75" spans="1:11" ht="18.75">
       <c r="A75" s="5" t="s">
         <v>90</v>
       </c>
@@ -3766,18 +4077,27 @@
       <c r="E75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="11" t="str">
+      <c r="F75" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "citool" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I75" s="11" t="str">
+      <c r="J75" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "citool" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="18.75">
+      <c r="K75" s="1" t="str">
+        <f>""""&amp;A75&amp;""""&amp;","</f>
+        <v>"citool",</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="18.75" hidden="1">
       <c r="A76" s="5" t="s">
         <v>91</v>
       </c>
@@ -3792,18 +4112,23 @@
       <c r="E76" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="11" t="str">
+      <c r="F76" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "clone" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I76" s="11" t="str">
+      <c r="J76" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "clone" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75">
+    <row r="77" spans="1:11" ht="18.75" hidden="1">
       <c r="A77" s="5" t="s">
         <v>92</v>
       </c>
@@ -3818,18 +4143,23 @@
       <c r="E77" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="11" t="str">
+      <c r="F77" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "commit" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I77" s="11" t="str">
+      <c r="J77" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "commit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75">
+    <row r="78" spans="1:11" ht="18.75" hidden="1">
       <c r="A78" s="5" t="s">
         <v>93</v>
       </c>
@@ -3844,18 +4174,23 @@
       <c r="E78" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="11" t="str">
+      <c r="F78" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "diff" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I78" s="11" t="str">
+      <c r="J78" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "diff" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75">
+    <row r="79" spans="1:11" ht="18.75" hidden="1">
       <c r="A79" s="5" t="s">
         <v>94</v>
       </c>
@@ -3870,18 +4205,23 @@
       <c r="E79" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="11" t="str">
+      <c r="F79" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "fetch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I79" s="11" t="str">
+      <c r="J79" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "fetch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75">
+    <row r="80" spans="1:11" ht="18.75" hidden="1">
       <c r="A80" s="5" t="s">
         <v>95</v>
       </c>
@@ -3896,18 +4236,23 @@
       <c r="E80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="11" t="str">
+      <c r="F80" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "gc" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I80" s="11" t="str">
+      <c r="J80" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "gc" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75">
+    <row r="81" spans="1:11" ht="18.75" hidden="1">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -3922,18 +4267,23 @@
       <c r="E81" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="11" t="str">
+      <c r="F81" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H81" s="13"/>
+      <c r="I81" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "grep" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I81" s="11" t="str">
+      <c r="J81" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "grep" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75">
+    <row r="82" spans="1:11" ht="18.75">
       <c r="A82" s="5" t="s">
         <v>97</v>
       </c>
@@ -3948,18 +4298,27 @@
       <c r="E82" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="11" t="str">
+      <c r="F82" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="13"/>
+      <c r="I82" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "gui" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I82" s="11" t="str">
+      <c r="J82" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "gui" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="18.75">
+      <c r="K82" s="1" t="str">
+        <f>""""&amp;A82&amp;""""&amp;","</f>
+        <v>"gui",</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="18.75" hidden="1">
       <c r="A83" s="5" t="s">
         <v>98</v>
       </c>
@@ -3974,18 +4333,23 @@
       <c r="E83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="11" t="str">
+      <c r="F83" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H83" s="13"/>
+      <c r="I83" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "log" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I83" s="11" t="str">
+      <c r="J83" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "log" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75">
+    <row r="84" spans="1:11" ht="18.75" hidden="1">
       <c r="A84" s="5" t="s">
         <v>99</v>
       </c>
@@ -4000,18 +4364,23 @@
       <c r="E84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="11" t="str">
+      <c r="F84" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H84" s="13"/>
+      <c r="I84" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "merge" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I84" s="11" t="str">
+      <c r="J84" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "merge" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75">
+    <row r="85" spans="1:11" ht="18.75" hidden="1">
       <c r="A85" s="5" t="s">
         <v>100</v>
       </c>
@@ -4026,18 +4395,23 @@
       <c r="E85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="11" t="str">
+      <c r="F85" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H85" s="13"/>
+      <c r="I85" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "mv" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I85" s="11" t="str">
+      <c r="J85" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "mv" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75">
+    <row r="86" spans="1:11" ht="18.75" hidden="1">
       <c r="A86" s="5" t="s">
         <v>101</v>
       </c>
@@ -4052,18 +4426,23 @@
       <c r="E86" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="11" t="str">
+      <c r="F86" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H86" s="13"/>
+      <c r="I86" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "notes" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I86" s="11" t="str">
+      <c r="J86" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "notes" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75">
+    <row r="87" spans="1:11" ht="18.75" hidden="1">
       <c r="A87" s="5" t="s">
         <v>102</v>
       </c>
@@ -4078,18 +4457,23 @@
       <c r="E87" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="11" t="str">
+      <c r="F87" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H87" s="13"/>
+      <c r="I87" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "push" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I87" s="11" t="str">
+      <c r="J87" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "push" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75">
+    <row r="88" spans="1:11" ht="18.75" hidden="1">
       <c r="A88" s="5" t="s">
         <v>103</v>
       </c>
@@ -4104,18 +4488,23 @@
       <c r="E88" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="11" t="str">
+      <c r="F88" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H88" s="13"/>
+      <c r="I88" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "range-diff" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I88" s="11" t="str">
+      <c r="J88" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "range-diff" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75">
+    <row r="89" spans="1:11" ht="18.75" hidden="1">
       <c r="A89" s="5" t="s">
         <v>104</v>
       </c>
@@ -4130,18 +4519,23 @@
       <c r="E89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="11" t="str">
+      <c r="F89" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H89" s="13"/>
+      <c r="I89" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "rebase" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I89" s="11" t="str">
+      <c r="J89" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "rebase" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75">
+    <row r="90" spans="1:11" ht="18.75" hidden="1">
       <c r="A90" s="5" t="s">
         <v>105</v>
       </c>
@@ -4156,18 +4550,23 @@
       <c r="E90" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="11" t="str">
+      <c r="F90" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H90" s="13"/>
+      <c r="I90" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "restore" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I90" s="11" t="str">
+      <c r="J90" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "restore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75">
+    <row r="91" spans="1:11" ht="18.75" hidden="1">
       <c r="A91" s="5" t="s">
         <v>106</v>
       </c>
@@ -4182,18 +4581,23 @@
       <c r="E91" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="11" t="str">
+      <c r="F91" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "revert" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I91" s="11" t="str">
+      <c r="J91" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "revert" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75">
+    <row r="92" spans="1:11" ht="18.75">
       <c r="A92" s="5" t="s">
         <v>107</v>
       </c>
@@ -4208,18 +4612,27 @@
       <c r="E92" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="11" t="str">
+      <c r="F92" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H92" s="13"/>
+      <c r="I92" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "sparse-checkout" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I92" s="11" t="str">
+      <c r="J92" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "sparse-checkout" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="18.75">
+      <c r="K92" s="1" t="str">
+        <f>""""&amp;A92&amp;""""&amp;","</f>
+        <v>"sparse-checkout",</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="18.75" hidden="1">
       <c r="A93" s="5" t="s">
         <v>108</v>
       </c>
@@ -4234,18 +4647,23 @@
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="11" t="str">
+      <c r="F93" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H93" s="13"/>
+      <c r="I93" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "status" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I93" s="11" t="str">
+      <c r="J93" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "status" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75">
+    <row r="94" spans="1:11" ht="18.75" hidden="1">
       <c r="A94" s="5" t="s">
         <v>109</v>
       </c>
@@ -4260,18 +4678,23 @@
       <c r="E94" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="11" t="str">
+      <c r="F94" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H94" s="13"/>
+      <c r="I94" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "submodule" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I94" s="11" t="str">
+      <c r="J94" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "submodule" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75">
+    <row r="95" spans="1:11" ht="18.75" hidden="1">
       <c r="A95" s="5" t="s">
         <v>110</v>
       </c>
@@ -4286,18 +4709,23 @@
       <c r="E95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="11" t="str">
+      <c r="F95" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H95" s="13"/>
+      <c r="I95" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "switch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I95" s="11" t="str">
+      <c r="J95" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "switch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75">
+    <row r="96" spans="1:11" ht="18.75" hidden="1">
       <c r="A96" s="5" t="s">
         <v>111</v>
       </c>
@@ -4312,18 +4740,23 @@
       <c r="E96" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="11" t="str">
+      <c r="F96" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H96" s="13"/>
+      <c r="I96" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "tag" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I96" s="11" t="str">
+      <c r="J96" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "tag" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75">
+    <row r="97" spans="1:11" ht="18.75" hidden="1">
       <c r="A97" s="5" t="s">
         <v>2</v>
       </c>
@@ -4338,18 +4771,23 @@
       <c r="E97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="11" t="str">
+      <c r="F97" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H97" s="13"/>
+      <c r="I97" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "worktree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I97" s="11" t="str">
+      <c r="J97" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "worktree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75">
+    <row r="98" spans="1:11" ht="18.75" hidden="1">
       <c r="A98" s="5" t="s">
         <v>112</v>
       </c>
@@ -4366,20 +4804,25 @@
       <c r="E98" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="11" t="str">
+      <c r="F98" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H98" s="13"/>
+      <c r="I98" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "diff-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I98" s="11" t="str">
+      <c r="J98" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "diff-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75">
+    <row r="99" spans="1:11" ht="18.75">
       <c r="A99" s="5" t="s">
-        <v>114</v>
+        <v>271</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>113</v>
@@ -4394,20 +4837,29 @@
       <c r="E99" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="11" t="str">
+      <c r="F99" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H99" s="13"/>
+      <c r="I99" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "get-tar-commit-id" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I99" s="11" t="str">
+      <c r="J99" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "get-tar-commit-id" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="18.75">
+      <c r="K99" s="1" t="str">
+        <f>""""&amp;A99&amp;""""&amp;","</f>
+        <v>"get-tar-commit-id",</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="18.75" hidden="1">
       <c r="A100" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>113</v>
@@ -4422,20 +4874,25 @@
       <c r="E100" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="11" t="str">
+      <c r="F100" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H100" s="13"/>
+      <c r="I100" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "rev-parse" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I100" s="11" t="str">
+      <c r="J100" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "rev-parse" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75">
+    <row r="101" spans="1:11" ht="18.75" hidden="1">
       <c r="A101" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>113</v>
@@ -4448,20 +4905,25 @@
       <c r="E101" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="11" t="str">
+      <c r="F101" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H101" s="13"/>
+      <c r="I101" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "cat-file" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I101" s="11" t="str">
+      <c r="J101" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "cat-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75">
+    <row r="102" spans="1:11" ht="18.75" hidden="1">
       <c r="A102" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>113</v>
@@ -4474,20 +4936,25 @@
       <c r="E102" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="11" t="str">
+      <c r="F102" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H102" s="13"/>
+      <c r="I102" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "cherry" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I102" s="11" t="str">
+      <c r="J102" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "cherry" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75">
+    <row r="103" spans="1:11" ht="18.75" hidden="1">
       <c r="A103" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>113</v>
@@ -4500,20 +4967,25 @@
       <c r="E103" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="11" t="str">
+      <c r="F103" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H103" s="13"/>
+      <c r="I103" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "diff-files" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I103" s="11" t="str">
+      <c r="J103" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "diff-files" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75">
+    <row r="104" spans="1:11" ht="18.75" hidden="1">
       <c r="A104" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>113</v>
@@ -4526,20 +4998,25 @@
       <c r="E104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="11" t="str">
+      <c r="F104" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "diff-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I104" s="11" t="str">
+      <c r="J104" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "diff-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75">
+    <row r="105" spans="1:11" ht="18.75" hidden="1">
       <c r="A105" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>113</v>
@@ -4552,20 +5029,25 @@
       <c r="E105" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="11" t="str">
+      <c r="F105" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H105" s="13"/>
+      <c r="I105" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "for-each-ref" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I105" s="11" t="str">
+      <c r="J105" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "for-each-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75">
+    <row r="106" spans="1:11" ht="18.75" hidden="1">
       <c r="A106" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>113</v>
@@ -4578,20 +5060,25 @@
       <c r="E106" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="11" t="str">
+      <c r="F106" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H106" s="13"/>
+      <c r="I106" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "ls-files" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I106" s="11" t="str">
+      <c r="J106" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "ls-files" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75">
+    <row r="107" spans="1:11" ht="18.75" hidden="1">
       <c r="A107" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>113</v>
@@ -4604,20 +5091,25 @@
       <c r="E107" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="11" t="str">
+      <c r="F107" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H107" s="13"/>
+      <c r="I107" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "ls-remote" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I107" s="11" t="str">
+      <c r="J107" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "ls-remote" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75">
+    <row r="108" spans="1:11" ht="18.75" hidden="1">
       <c r="A108" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>113</v>
@@ -4630,20 +5122,25 @@
       <c r="E108" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="11" t="str">
+      <c r="F108" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H108" s="13"/>
+      <c r="I108" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "ls-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I108" s="11" t="str">
+      <c r="J108" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "ls-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75">
+    <row r="109" spans="1:11" ht="18.75" hidden="1">
       <c r="A109" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>113</v>
@@ -4656,20 +5153,25 @@
       <c r="E109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="11" t="str">
+      <c r="F109" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H109" s="13"/>
+      <c r="I109" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "merge-base" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I109" s="11" t="str">
+      <c r="J109" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "merge-base" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75">
+    <row r="110" spans="1:11" ht="18.75" hidden="1">
       <c r="A110" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>113</v>
@@ -4682,20 +5184,25 @@
       <c r="E110" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="11" t="str">
+      <c r="F110" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H110" s="13"/>
+      <c r="I110" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "name-rev" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I110" s="11" t="str">
+      <c r="J110" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "name-rev" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75">
+    <row r="111" spans="1:11" ht="18.75" hidden="1">
       <c r="A111" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>113</v>
@@ -4708,20 +5215,25 @@
       <c r="E111" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="11" t="str">
+      <c r="F111" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H111" s="13"/>
+      <c r="I111" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "pack-redundant" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I111" s="11" t="str">
+      <c r="J111" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "pack-redundant" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75">
+    <row r="112" spans="1:11" ht="18.75" hidden="1">
       <c r="A112" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>113</v>
@@ -4734,20 +5246,25 @@
       <c r="E112" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="11" t="str">
+      <c r="F112" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H112" s="13"/>
+      <c r="I112" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "rev-list" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I112" s="11" t="str">
+      <c r="J112" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "rev-list" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75">
+    <row r="113" spans="1:11" ht="18.75">
       <c r="A113" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>113</v>
@@ -4760,20 +5277,29 @@
       <c r="E113" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="11" t="str">
+      <c r="F113" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H113" s="13"/>
+      <c r="I113" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "show-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I113" s="11" t="str">
+      <c r="J113" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "show-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="18.75">
+      <c r="K113" s="1" t="str">
+        <f>""""&amp;A113&amp;""""&amp;","</f>
+        <v>"show-index",</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="18.75" hidden="1">
       <c r="A114" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>113</v>
@@ -4786,20 +5312,25 @@
       <c r="E114" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="11" t="str">
+      <c r="F114" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H114" s="13"/>
+      <c r="I114" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "show-ref" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I114" s="11" t="str">
+      <c r="J114" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "show-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75">
+    <row r="115" spans="1:11" ht="18.75" hidden="1">
       <c r="A115" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>113</v>
@@ -4812,20 +5343,25 @@
       <c r="E115" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="11" t="str">
+      <c r="F115" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H115" s="13"/>
+      <c r="I115" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "unpack-file" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I115" s="11" t="str">
+      <c r="J115" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "unpack-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75">
+    <row r="116" spans="1:11" ht="18.75" hidden="1">
       <c r="A116" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>113</v>
@@ -4838,20 +5374,25 @@
       <c r="E116" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="11" t="str">
+      <c r="F116" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H116" s="13"/>
+      <c r="I116" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "var" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I116" s="11" t="str">
+      <c r="J116" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "var" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75">
+    <row r="117" spans="1:11" ht="18.75" hidden="1">
       <c r="A117" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>113</v>
@@ -4864,23 +5405,28 @@
       <c r="E117" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="11" t="str">
+      <c r="F117" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H117" s="13"/>
+      <c r="I117" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "verify-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I117" s="11" t="str">
+      <c r="J117" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "verify-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75">
+    <row r="118" spans="1:11" ht="18.75" hidden="1">
       <c r="A118" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>8</v>
@@ -4892,23 +5438,28 @@
       <c r="E118" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="11" t="str">
+      <c r="F118" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H118" s="13"/>
+      <c r="I118" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "commit-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I118" s="11" t="str">
+      <c r="J118" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "commit-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75">
+    <row r="119" spans="1:11" ht="18.75" hidden="1">
       <c r="A119" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>8</v>
@@ -4920,23 +5471,28 @@
       <c r="E119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="11" t="str">
+      <c r="F119" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H119" s="13"/>
+      <c r="I119" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "hash-object" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I119" s="11" t="str">
+      <c r="J119" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "hash-object" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75">
+    <row r="120" spans="1:11" ht="18.75" hidden="1">
       <c r="A120" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>13</v>
@@ -4948,23 +5504,28 @@
       <c r="E120" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="11" t="str">
+      <c r="F120" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H120" s="13"/>
+      <c r="I120" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "read-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I120" s="11" t="str">
+      <c r="J120" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "read-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75">
+    <row r="121" spans="1:11" ht="18.75" hidden="1">
       <c r="A121" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>13</v>
@@ -4976,23 +5537,28 @@
       <c r="E121" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="11" t="str">
+      <c r="F121" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H121" s="13"/>
+      <c r="I121" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "symbolic-ref" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I121" s="11" t="str">
+      <c r="J121" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "symbolic-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75">
+    <row r="122" spans="1:11" ht="18.75" hidden="1">
       <c r="A122" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>72</v>
@@ -5004,23 +5570,28 @@
       <c r="E122" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="11" t="str">
+      <c r="F122" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H122" s="13"/>
+      <c r="I122" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "index-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I122" s="11" t="str">
+      <c r="J122" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "index-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75">
+    <row r="123" spans="1:11" ht="18.75" hidden="1">
       <c r="A123" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>28</v>
@@ -5032,23 +5603,28 @@
       <c r="E123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="11" t="str">
+      <c r="F123" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H123" s="13"/>
+      <c r="I123" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "prune-packed" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I123" s="11" t="str">
+      <c r="J123" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "prune-packed" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75">
+    <row r="124" spans="1:11" ht="18.75" hidden="1">
       <c r="A124" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>2</v>
@@ -5060,23 +5636,28 @@
       <c r="E124" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="11" t="str">
+      <c r="F124" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H124" s="13"/>
+      <c r="I124" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "mktree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I124" s="11" t="str">
+      <c r="J124" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "mktree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75">
+    <row r="125" spans="1:11" ht="18.75" hidden="1">
       <c r="A125" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6" t="str">
@@ -5086,23 +5667,28 @@
       <c r="E125" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="11" t="str">
+      <c r="F125" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H125" s="13"/>
+      <c r="I125" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "apply" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I125" s="11" t="str">
+      <c r="J125" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "apply" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18.75">
+    <row r="126" spans="1:11" ht="18.75" hidden="1">
       <c r="A126" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="6" t="str">
@@ -5112,23 +5698,28 @@
       <c r="E126" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="11" t="str">
+      <c r="F126" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H126" s="13"/>
+      <c r="I126" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "checkout-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I126" s="11" t="str">
+      <c r="J126" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "checkout-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18.75">
+    <row r="127" spans="1:11" ht="18.75" hidden="1">
       <c r="A127" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="6" t="str">
@@ -5138,23 +5729,28 @@
       <c r="E127" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="11" t="str">
+      <c r="F127" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H127" s="13"/>
+      <c r="I127" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "commit-graph" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I127" s="11" t="str">
+      <c r="J127" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "commit-graph" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18.75">
+    <row r="128" spans="1:11" ht="18.75" hidden="1">
       <c r="A128" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6" t="str">
@@ -5164,23 +5760,28 @@
       <c r="E128" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="11" t="str">
+      <c r="F128" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H128" s="13"/>
+      <c r="I128" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "merge-file" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I128" s="11" t="str">
+      <c r="J128" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "merge-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18.75">
+    <row r="129" spans="1:11" ht="18.75" hidden="1">
       <c r="A129" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="6" t="str">
@@ -5190,23 +5791,28 @@
       <c r="E129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="11" t="str">
+      <c r="F129" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H129" s="13"/>
+      <c r="I129" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "merge-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I129" s="11" t="str">
+      <c r="J129" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "merge-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18.75">
+    <row r="130" spans="1:11" ht="18.75">
       <c r="A130" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="6" t="str">
@@ -5216,23 +5822,32 @@
       <c r="E130" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="11" t="str">
+      <c r="F130" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H130" s="13"/>
+      <c r="I130" s="11" t="str">
         <f t="shared" si="5"/>
         <v>case "mktag" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I130" s="11" t="str">
+      <c r="J130" s="11" t="str">
         <f t="shared" si="6"/>
         <v>case "mktag" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="18.75">
+      <c r="K130" s="1" t="str">
+        <f>""""&amp;A130&amp;""""&amp;","</f>
+        <v>"mktag",</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="18.75" hidden="1">
       <c r="A131" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6" t="str">
@@ -5242,23 +5857,28 @@
       <c r="E131" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="11" t="str">
-        <f t="shared" ref="H131:H166" si="9">"case "&amp;""""&amp;$A131&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+      <c r="F131" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H131" s="13"/>
+      <c r="I131" s="11" t="str">
+        <f t="shared" ref="I131:I166" si="9">"case "&amp;""""&amp;$A131&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"synopsis個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
         <v>case "multi-pack-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I131" s="11" t="str">
-        <f t="shared" ref="I131:I166" si="10">"case "&amp;""""&amp;$A131&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
+      <c r="J131" s="11" t="str">
+        <f t="shared" ref="J131:J166" si="10">"case "&amp;""""&amp;$A131&amp;""""&amp;" : Console.WriteLine("&amp;""""&amp;"options個別解析: "&amp;""""&amp;" + command);ret = cs.ScrapeBy(command); break;"</f>
         <v>case "multi-pack-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18.75">
+    <row r="132" spans="1:11" ht="18.75" hidden="1">
       <c r="A132" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="6" t="str">
@@ -5268,23 +5888,28 @@
       <c r="E132" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="11" t="str">
+      <c r="F132" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H132" s="13"/>
+      <c r="I132" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "pack-objects" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I132" s="11" t="str">
+      <c r="J132" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "pack-objects" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18.75">
+    <row r="133" spans="1:11" ht="18.75" hidden="1">
       <c r="A133" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="6" t="str">
@@ -5294,23 +5919,28 @@
       <c r="E133" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="11" t="str">
+      <c r="F133" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H133" s="13"/>
+      <c r="I133" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "unpack-objects" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I133" s="11" t="str">
+      <c r="J133" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "unpack-objects" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18.75">
+    <row r="134" spans="1:11" ht="18.75" hidden="1">
       <c r="A134" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6" t="str">
@@ -5320,23 +5950,28 @@
       <c r="E134" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="11" t="str">
+      <c r="F134" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H134" s="13"/>
+      <c r="I134" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "update-index" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I134" s="11" t="str">
+      <c r="J134" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "update-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18.75">
+    <row r="135" spans="1:11" ht="18.75">
       <c r="A135" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="6" t="str">
@@ -5346,23 +5981,32 @@
       <c r="E135" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="11" t="str">
+      <c r="F135" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H135" s="13"/>
+      <c r="I135" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "update-ref" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I135" s="11" t="str">
+      <c r="J135" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "update-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="18.75">
+      <c r="K135" s="1" t="str">
+        <f>""""&amp;A135&amp;""""&amp;","</f>
+        <v>"update-ref",</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="18.75" hidden="1">
       <c r="A136" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="6" t="str">
@@ -5372,23 +6016,28 @@
       <c r="E136" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="11" t="str">
+      <c r="F136" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H136" s="13"/>
+      <c r="I136" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "write-tree" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I136" s="11" t="str">
+      <c r="J136" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "write-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18.75">
+    <row r="137" spans="1:11" ht="18.75" hidden="1">
       <c r="A137" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>8</v>
@@ -5400,23 +6049,28 @@
       <c r="E137" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="11" t="str">
+      <c r="F137" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H137" s="13"/>
+      <c r="I137" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "check-ref-format" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I137" s="11" t="str">
+      <c r="J137" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "check-ref-format" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75">
+    <row r="138" spans="1:11" ht="18.75">
       <c r="A138" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>8</v>
@@ -5428,23 +6082,32 @@
       <c r="E138" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="11" t="str">
+      <c r="F138" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H138" s="13"/>
+      <c r="I138" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "merge-one-file" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I138" s="11" t="str">
+      <c r="J138" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "merge-one-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="18.75">
+      <c r="K138" s="1" t="str">
+        <f>""""&amp;A138&amp;""""&amp;","</f>
+        <v>"merge-one-file",</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="18.75" hidden="1">
       <c r="A139" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>8</v>
@@ -5456,23 +6119,28 @@
       <c r="E139" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="11" t="str">
+      <c r="F139" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H139" s="13"/>
+      <c r="I139" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "patch-id" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I139" s="11" t="str">
+      <c r="J139" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "patch-id" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="18.75">
+    <row r="140" spans="1:11" ht="18.75" hidden="1">
       <c r="A140" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>13</v>
@@ -5484,23 +6152,28 @@
       <c r="E140" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="11" t="str">
+      <c r="F140" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H140" s="13"/>
+      <c r="I140" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "column" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I140" s="11" t="str">
+      <c r="J140" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "column" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18.75">
+    <row r="141" spans="1:11" ht="18.75" hidden="1">
       <c r="A141" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>13</v>
@@ -5512,23 +6185,28 @@
       <c r="E141" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="11" t="str">
+      <c r="F141" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H141" s="13"/>
+      <c r="I141" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "mailsplit" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I141" s="11" t="str">
+      <c r="J141" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "mailsplit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18.75" hidden="1">
+    <row r="142" spans="1:11" ht="18.75" hidden="1">
       <c r="A142" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>2</v>
@@ -5542,21 +6220,22 @@
       </c>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="11" t="str">
+      <c r="H142" s="11"/>
+      <c r="I142" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "sh-setup" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I142" s="11" t="str">
+      <c r="J142" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "sh-setup" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18.75">
+    <row r="143" spans="1:11" ht="18.75" hidden="1">
       <c r="A143" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6" t="str">
@@ -5566,23 +6245,28 @@
       <c r="E143" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="11" t="str">
+      <c r="F143" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H143" s="13"/>
+      <c r="I143" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "check-attr" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I143" s="11" t="str">
+      <c r="J143" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "check-attr" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18.75">
+    <row r="144" spans="1:11" ht="18.75" hidden="1">
       <c r="A144" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="6" t="str">
@@ -5592,23 +6276,28 @@
       <c r="E144" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="11" t="str">
+      <c r="F144" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H144" s="13"/>
+      <c r="I144" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "check-ignore" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I144" s="11" t="str">
+      <c r="J144" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "check-ignore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18.75">
+    <row r="145" spans="1:11" ht="18.75" hidden="1">
       <c r="A145" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="6" t="str">
@@ -5618,23 +6307,28 @@
       <c r="E145" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="11" t="str">
+      <c r="F145" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H145" s="13"/>
+      <c r="I145" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "check-mailmap" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I145" s="11" t="str">
+      <c r="J145" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "check-mailmap" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75">
+    <row r="146" spans="1:11" ht="18.75">
       <c r="A146" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="6" t="str">
@@ -5644,23 +6338,32 @@
       <c r="E146" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="11" t="str">
+      <c r="F146" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H146" s="13"/>
+      <c r="I146" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "credential" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I146" s="11" t="str">
+      <c r="J146" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "credential" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" ht="18.75" hidden="1">
+      <c r="K146" s="1" t="str">
+        <f>""""&amp;A146&amp;""""&amp;","</f>
+        <v>"credential",</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="18.75" hidden="1">
       <c r="A147" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="6" t="str">
@@ -5672,21 +6375,22 @@
       </c>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
-      <c r="H147" s="11" t="str">
+      <c r="H147" s="13"/>
+      <c r="I147" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "credential-cache" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I147" s="11" t="str">
+      <c r="J147" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "credential-cache" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18.75" hidden="1">
+    <row r="148" spans="1:11" ht="18.75" hidden="1">
       <c r="A148" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="6" t="str">
@@ -5698,21 +6402,22 @@
       </c>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
-      <c r="H148" s="11" t="str">
+      <c r="H148" s="13"/>
+      <c r="I148" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "credential-store" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I148" s="11" t="str">
+      <c r="J148" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "credential-store" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18.75">
+    <row r="149" spans="1:11" ht="18.75" hidden="1">
       <c r="A149" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="6" t="str">
@@ -5722,23 +6427,28 @@
       <c r="E149" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="11" t="str">
+      <c r="F149" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H149" s="13"/>
+      <c r="I149" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "fmt-merge-msg" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I149" s="11" t="str">
+      <c r="J149" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "fmt-merge-msg" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18.75">
+    <row r="150" spans="1:11" ht="18.75" hidden="1">
       <c r="A150" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="6" t="str">
@@ -5748,23 +6458,28 @@
       <c r="E150" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="11" t="str">
+      <c r="F150" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H150" s="13"/>
+      <c r="I150" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "interpret-trailers" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I150" s="11" t="str">
+      <c r="J150" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "interpret-trailers" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="18.75">
+    <row r="151" spans="1:11" ht="18.75" hidden="1">
       <c r="A151" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="6" t="str">
@@ -5774,23 +6489,28 @@
       <c r="E151" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="11" t="str">
+      <c r="F151" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H151" s="13"/>
+      <c r="I151" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "mailinfo" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I151" s="11" t="str">
+      <c r="J151" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "mailinfo" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18.75" hidden="1">
+    <row r="152" spans="1:11" ht="18.75" hidden="1">
       <c r="A152" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="6" t="str">
@@ -5802,21 +6522,22 @@
       </c>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
-      <c r="H152" s="11" t="str">
+      <c r="H152" s="11"/>
+      <c r="I152" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "sh-i18n" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I152" s="11" t="str">
+      <c r="J152" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "sh-i18n" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18.75">
+    <row r="153" spans="1:11" ht="18.75" hidden="1">
       <c r="A153" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="6" t="str">
@@ -5826,23 +6547,28 @@
       <c r="E153" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="11" t="str">
+      <c r="F153" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H153" s="13"/>
+      <c r="I153" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "stripspace" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I153" s="11" t="str">
+      <c r="J153" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "stripspace" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18.75">
+    <row r="154" spans="1:11" ht="18.75" hidden="1">
       <c r="A154" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>8</v>
@@ -5854,23 +6580,28 @@
       <c r="E154" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="11" t="str">
+      <c r="F154" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H154" s="13"/>
+      <c r="I154" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "receive-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I154" s="11" t="str">
+      <c r="J154" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "receive-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18.75">
+    <row r="155" spans="1:11" ht="18.75" hidden="1">
       <c r="A155" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="6" t="str">
@@ -5880,23 +6611,28 @@
       <c r="E155" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="11" t="str">
+      <c r="F155" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H155" s="13"/>
+      <c r="I155" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "http-fetch" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I155" s="11" t="str">
+      <c r="J155" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "http-fetch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18.75">
+    <row r="156" spans="1:11" ht="18.75" hidden="1">
       <c r="A156" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="6" t="str">
@@ -5906,23 +6642,28 @@
       <c r="E156" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="11" t="str">
+      <c r="F156" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H156" s="13"/>
+      <c r="I156" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "http-push" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I156" s="11" t="str">
+      <c r="J156" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "http-push" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18.75" hidden="1">
+    <row r="157" spans="1:11" ht="18.75" hidden="1">
       <c r="A157" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="6" t="str">
@@ -5934,21 +6675,22 @@
       </c>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
-      <c r="H157" s="11" t="str">
+      <c r="H157" s="11"/>
+      <c r="I157" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "parse-remote" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I157" s="11" t="str">
+      <c r="J157" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "parse-remote" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18.75" hidden="1">
+    <row r="158" spans="1:11" ht="18.75" hidden="1">
       <c r="A158" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="6" t="str">
@@ -5960,21 +6702,22 @@
       </c>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
-      <c r="H158" s="11" t="str">
+      <c r="H158" s="11"/>
+      <c r="I158" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "shell" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I158" s="11" t="str">
+      <c r="J158" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "shell" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="18.75">
+    <row r="159" spans="1:11" ht="18.75" hidden="1">
       <c r="A159" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="6" t="str">
@@ -5984,23 +6727,28 @@
       <c r="E159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="11" t="str">
+      <c r="F159" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H159" s="13"/>
+      <c r="I159" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "upload-archive" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I159" s="11" t="str">
+      <c r="J159" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "upload-archive" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18.75">
+    <row r="160" spans="1:11" ht="18.75" hidden="1">
       <c r="A160" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="6" t="str">
@@ -6010,23 +6758,28 @@
       <c r="E160" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="11" t="str">
+      <c r="F160" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H160" s="13"/>
+      <c r="I160" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "upload-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I160" s="11" t="str">
+      <c r="J160" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "upload-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75">
+    <row r="161" spans="1:11" ht="18.75" hidden="1">
       <c r="A161" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="6" t="str">
@@ -6036,23 +6789,28 @@
       <c r="E161" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
-      <c r="H161" s="11" t="str">
+      <c r="F161" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H161" s="13"/>
+      <c r="I161" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "daemon" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I161" s="11" t="str">
+      <c r="J161" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "daemon" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18.75">
+    <row r="162" spans="1:11" ht="18.75" hidden="1">
       <c r="A162" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="6" t="str">
@@ -6062,23 +6820,28 @@
       <c r="E162" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="11" t="str">
+      <c r="F162" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H162" s="13"/>
+      <c r="I162" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "fetch-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I162" s="11" t="str">
+      <c r="J162" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "fetch-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75">
+    <row r="163" spans="1:11" ht="18.75">
       <c r="A163" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="6" t="str">
@@ -6088,23 +6851,32 @@
       <c r="E163" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="11" t="str">
+      <c r="F163" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H163" s="13"/>
+      <c r="I163" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "http-backend" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I163" s="11" t="str">
+      <c r="J163" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "http-backend" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="18.75">
+      <c r="K163" s="1" t="str">
+        <f>""""&amp;A163&amp;""""&amp;","</f>
+        <v>"http-backend",</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="18.75" hidden="1">
       <c r="A164" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="6" t="str">
@@ -6114,23 +6886,28 @@
       <c r="E164" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="11" t="str">
+      <c r="F164" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H164" s="13"/>
+      <c r="I164" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "send-pack" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I164" s="11" t="str">
+      <c r="J164" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "send-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75">
+    <row r="165" spans="1:11" ht="18.75">
       <c r="A165" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="6" t="str">
@@ -6140,20 +6917,29 @@
       <c r="E165" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="11" t="str">
+      <c r="F165" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H165" s="13"/>
+      <c r="I165" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "update-server-info" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I165" s="11" t="str">
+      <c r="J165" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "update-server-info" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" ht="18.75">
+      <c r="K165" s="1" t="str">
+        <f t="shared" ref="K165:K166" si="11">""""&amp;A165&amp;""""&amp;","</f>
+        <v>"update-server-info",</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="18.75">
       <c r="A166" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
@@ -6166,20 +6952,34 @@
       <c r="E166" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="11" t="str">
+      <c r="F166" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H166" s="13"/>
+      <c r="I166" s="11" t="str">
         <f t="shared" si="9"/>
         <v>case "stage" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
-      <c r="I166" s="11" t="str">
+      <c r="J166" s="11" t="str">
         <f t="shared" si="10"/>
         <v>case "stage" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
+      <c r="K166" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"stage",</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H166" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:I166" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
+      <filters>
+        <filter val="〇"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
       <filters>
         <filter val="〇"/>
       </filters>
@@ -6206,107 +7006,107 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
       <c r="A5" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75">
       <c r="A8" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75">
       <c r="A10" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75">
       <c r="B11" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75">
       <c r="A14" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75">
       <c r="B15" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75">
       <c r="B16" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75">
       <c r="A20" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75">
       <c r="B22" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75">
       <c r="B23" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75">
       <c r="B24" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75">
       <c r="A27" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6335,66 +7135,66 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" t="s">
         <v>206</v>
-      </c>
-      <c r="E4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75">
       <c r="A5" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75">
       <c r="A6" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -6425,34 +7225,34 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18">
       <c r="A1" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="11" t="str">
         <f t="shared" ref="B2:B24" si="0">"${_"&amp;C2&amp;"}"</f>
         <v>${_-s}</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="str">
@@ -6466,14 +7266,14 @@
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--short}</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="str">
@@ -6487,14 +7287,14 @@
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-b}</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="str">
@@ -6508,14 +7308,14 @@
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--branch}</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="str">
@@ -6529,14 +7329,14 @@
     </row>
     <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--show-stash}</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="str">
@@ -6550,17 +7350,17 @@
     </row>
     <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--porcelain}</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="E7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6573,14 +7373,14 @@
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--long}</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="str">
@@ -6594,14 +7394,14 @@
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-v}</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="str">
@@ -6615,14 +7415,14 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--verbose}</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="str">
@@ -6636,17 +7436,17 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-u}</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="E11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6659,17 +7459,17 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--untracked-files}</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="E12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6682,17 +7482,17 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--ignore-submodules}</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6705,14 +7505,14 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--ignored}</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="str">
@@ -6726,14 +7526,14 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-z}</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="str">
@@ -6747,17 +7547,17 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--column}</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="E16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6770,14 +7570,14 @@
     </row>
     <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-column}</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="str">
@@ -6791,14 +7591,14 @@
     </row>
     <row r="18" spans="1:6" ht="18.75">
       <c r="A18" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--ahead-behind}</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="str">
@@ -6812,14 +7612,14 @@
     </row>
     <row r="19" spans="1:6" ht="18.75">
       <c r="A19" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-ahead-behind}</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="str">
@@ -6833,14 +7633,14 @@
     </row>
     <row r="20" spans="1:6" ht="18.75">
       <c r="A20" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--renames}</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="str">
@@ -6854,14 +7654,14 @@
     </row>
     <row r="21" spans="1:6" ht="18.75">
       <c r="A21" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-renames}</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="str">
@@ -6875,17 +7675,17 @@
     </row>
     <row r="22" spans="1:6" ht="18.75">
       <c r="A22" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--find-renames}</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="E22" s="11" t="str">
         <f t="shared" si="1"/>
@@ -6898,14 +7698,14 @@
     </row>
     <row r="23" spans="1:6" ht="18.75">
       <c r="A23" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-lock-index}</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="str">
@@ -6919,14 +7719,14 @@
     </row>
     <row r="24" spans="1:6" ht="18.75">
       <c r="A24" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--lock-index}</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="str">
@@ -6960,32 +7760,32 @@
   <sheetData>
     <row r="3" spans="1:1" ht="18.75">
       <c r="A3" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75">
       <c r="A4" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75">
       <c r="A7" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75">
       <c r="A8" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75">
       <c r="A9" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75">
       <c r="A10" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Git-Complete/temp/検証.xlsx
+++ b/Git-Complete/temp/検証.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A2941D-6A1E-461B-ACA6-D0760CCC7587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A21C6B-78F5-4FE5-8FD5-C6DFAE683F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="274">
   <si>
     <r>
       <rPr>
@@ -1206,6 +1206,19 @@
   </si>
   <si>
     <t>あ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>古いコマンドなのでサポートしない。上位互換にgit-logがある</t>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゴカン</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1778,9 +1791,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AMN166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5:K166"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2291,16 +2304,12 @@
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-whatchanged</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="13"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="I16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>case "whatchanged" : Console.WriteLine("synopsis個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>

--- a/Git-Complete/temp/検証.xlsx
+++ b/Git-Complete/temp/検証.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A21C6B-78F5-4FE5-8FD5-C6DFAE683F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828FF0F1-6919-444A-8B31-A75080FDC115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1793,7 +1793,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
